--- a/server/סימולטור ממש מעודכן.xlsx
+++ b/server/סימולטור ממש מעודכן.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Documents\עבודות ולקוחות\סימולטורים ואפיון\סימולטור פרישה\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\RetirementSimulator\RetirementSimulator\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8460" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="מסך 1" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="625">
   <si>
     <t>במסך זה המשמתמש יצטרך רק לבחור אם העובד פורש בפנסיה תקציבית או בפנסיה צוברת</t>
   </si>
@@ -2291,6 +2291,9 @@
   </si>
   <si>
     <t>סה"כ שכר פנסיוני לחישוב הפנסיה התקציבית</t>
+  </si>
+  <si>
+    <t>english</t>
   </si>
 </sst>
 </file>
@@ -2745,12 +2748,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2764,9 +2761,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2775,6 +2769,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3162,15 +3165,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
       <c r="J2" s="87"/>
     </row>
     <row r="3" spans="2:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -4781,292 +4784,304 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L20"/>
+  <dimension ref="B3:M20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.69921875" style="1"/>
-    <col min="2" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.69921875" style="1"/>
-    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.69921875" style="1"/>
+    <col min="2" max="10" width="18" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.69921875" style="1"/>
+    <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="2:12" s="4" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" s="4" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B6" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="110"/>
+      <c r="D6" s="114" t="s">
         <v>607</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="E6" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="110"/>
+      <c r="G6" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="110" t="s">
+      <c r="H6" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="110" t="s">
+      <c r="I6" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="116" t="s">
+      <c r="J6" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="118" t="s">
+      <c r="K6" s="116" t="s">
         <v>525</v>
       </c>
-      <c r="L6" s="120" t="s">
+      <c r="M6" s="122" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="179.4" x14ac:dyDescent="0.25">
-      <c r="B7" s="116" t="s">
+    <row r="7" spans="2:13" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="B7" s="114" t="s">
         <v>529</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="114"/>
+      <c r="D7" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="115"/>
+      <c r="F7" s="114" t="s">
         <v>530</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="G7" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="110" t="s">
+      <c r="H7" s="110" t="s">
         <v>531</v>
       </c>
-      <c r="H7" s="119">
+      <c r="I7" s="117">
         <v>2000</v>
       </c>
-      <c r="I7" s="116" t="s">
+      <c r="J7" s="114" t="s">
         <v>537</v>
       </c>
-      <c r="J7" s="118" t="s">
+      <c r="K7" s="116" t="s">
         <v>528</v>
       </c>
-      <c r="L7" s="120"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="122"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="89" t="s">
         <v>364</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89" t="s">
         <v>605</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="91"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="89"/>
       <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="112"/>
-      <c r="L8" s="115"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="112"/>
+      <c r="M8" s="113"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="L9" s="33"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="6"/>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>350</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>350</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L10" s="33"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="2:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="62"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>45</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>45</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="75" t="s">
         <v>505</v>
       </c>
+      <c r="C20" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6396,7 +6411,7 @@
       <c r="B137" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C137" s="114" t="s">
+      <c r="C137" s="123" t="s">
         <v>549</v>
       </c>
     </row>
@@ -6404,13 +6419,13 @@
       <c r="B138" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C138" s="114"/>
+      <c r="C138" s="123"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C139" s="114"/>
+      <c r="C139" s="123"/>
       <c r="D139" s="98">
         <v>45008</v>
       </c>
@@ -6419,31 +6434,31 @@
       <c r="B140" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C140" s="114"/>
+      <c r="C140" s="123"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C141" s="114"/>
+      <c r="C141" s="123"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C142" s="114"/>
+      <c r="C142" s="123"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C143" s="114"/>
+      <c r="C143" s="123"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C144" s="114"/>
+      <c r="C144" s="123"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="55" t="s">
@@ -12034,7 +12049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -12050,7 +12065,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="4" spans="2:6" s="121" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" s="118" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>609</v>
       </c>
@@ -12068,7 +12083,7 @@
       <c r="C5" s="6">
         <v>2500</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="119" t="s">
         <v>614</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -12082,7 +12097,7 @@
       <c r="C6" s="6">
         <v>2000</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="119" t="s">
         <v>614</v>
       </c>
     </row>
@@ -12093,7 +12108,7 @@
       <c r="C7" s="6">
         <v>300</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="119" t="s">
         <v>614</v>
       </c>
     </row>
@@ -12104,7 +12119,7 @@
       <c r="C8" s="6">
         <v>700</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="119" t="s">
         <v>614</v>
       </c>
     </row>
@@ -12115,7 +12130,7 @@
       <c r="C9" s="6">
         <v>200</v>
       </c>
-      <c r="D9" s="122" t="s">
+      <c r="D9" s="119" t="s">
         <v>614</v>
       </c>
     </row>
@@ -12126,7 +12141,7 @@
       <c r="C10" s="6">
         <v>182</v>
       </c>
-      <c r="D10" s="122" t="s">
+      <c r="D10" s="119" t="s">
         <v>614</v>
       </c>
     </row>
@@ -12137,15 +12152,15 @@
       <c r="C11" s="6">
         <v>2000</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123" t="s">
+      <c r="D11" s="119"/>
+      <c r="E11" s="120" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="122"/>
+      <c r="D12" s="119"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
